--- a/Curse05/VLOOKUP Practice Sheet.xlsx
+++ b/Curse05/VLOOKUP Practice Sheet.xlsx
@@ -1,18 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Desktop-PC\Desktop\Datanalytics\Curse05\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8048BEA-F638-43DC-9DCC-26DD3F8CFA57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Sheet2" sheetId="2" r:id="rId5"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="181029"/>
+  <pivotCaches>
+    <pivotCache cacheId="10" r:id="rId4"/>
+  </pivotCaches>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="26">
   <si>
     <t>ID</t>
   </si>
@@ -26,9 +49,6 @@
     <t>G001</t>
   </si>
   <si>
-    <t>Chan,   Daniel</t>
-  </si>
-  <si>
     <t>G002</t>
   </si>
   <si>
@@ -69,25 +89,78 @@
   </si>
   <si>
     <t>Full-Time</t>
+  </si>
+  <si>
+    <t>Chan,Daniel</t>
+  </si>
+  <si>
+    <t>Hours</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Sanchez, Alexis</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Sum of Hours</t>
+  </si>
+  <si>
+    <t>Sum of Pay Rate</t>
+  </si>
+  <si>
+    <t>Sum of Total Pay</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m/d/yyyy"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF1F1F1F"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -96,43 +169,284 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="11">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="34" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    </dxf>
+  </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Desktop-PC" refreshedDate="44846.774603124999" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="5" xr:uid="{16DE827D-91A4-41EC-8D48-C2678C64B677}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="B14:K19" sheet="Sheet1"/>
+  </cacheSource>
+  <cacheFields count="10">
+    <cacheField name="Name" numFmtId="0">
+      <sharedItems count="5">
+        <s v="Chan,Daniel"/>
+        <s v="Ali, Dana"/>
+        <s v="Sanchez, Alexis"/>
+        <s v="Fischer, Wolfgang"/>
+        <s v="Patel, Anika"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="1/1/2020" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="6" maxValue="8.5"/>
+    </cacheField>
+    <cacheField name="1/2/2020" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="5" maxValue="8"/>
+    </cacheField>
+    <cacheField name="1/3/2020" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="5" maxValue="10"/>
+    </cacheField>
+    <cacheField name="1/4/2020" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="5.5" maxValue="8"/>
+    </cacheField>
+    <cacheField name="1/5/2020" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="5" maxValue="9" count="4">
+        <n v="5"/>
+        <n v="9"/>
+        <n v="7"/>
+        <n v="6"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="1/6/2020" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="2" maxValue="5.5"/>
+    </cacheField>
+    <cacheField name="Hours" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="29.5" maxValue="46"/>
+    </cacheField>
+    <cacheField name="Pay Rate" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="65" maxValue="3000"/>
+    </cacheField>
+    <cacheField name="Total Pay" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="2730" maxValue="88500"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="5">
+  <r>
+    <x v="0"/>
+    <n v="8"/>
+    <n v="8"/>
+    <n v="8.5"/>
+    <n v="7"/>
+    <x v="0"/>
+    <n v="2.5"/>
+    <n v="39"/>
+    <n v="100.5"/>
+    <n v="3919.5"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <n v="8.5"/>
+    <n v="7"/>
+    <n v="8"/>
+    <n v="8"/>
+    <x v="1"/>
+    <n v="5.5"/>
+    <n v="46"/>
+    <n v="75"/>
+    <n v="3450"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <n v="7.5"/>
+    <n v="6.5"/>
+    <n v="10"/>
+    <n v="8"/>
+    <x v="2"/>
+    <n v="5"/>
+    <n v="44"/>
+    <n v="150"/>
+    <n v="6600"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <n v="8"/>
+    <n v="8"/>
+    <n v="8"/>
+    <n v="7"/>
+    <x v="2"/>
+    <n v="4"/>
+    <n v="42"/>
+    <n v="65"/>
+    <n v="2730"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <n v="6"/>
+    <n v="5"/>
+    <n v="5"/>
+    <n v="5.5"/>
+    <x v="3"/>
+    <n v="2"/>
+    <n v="29.5"/>
+    <n v="3000"/>
+    <n v="88500"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{711342AE-B583-460D-BDDD-81073C706055}" name="PivotTable4" cacheId="10" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:D9" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="10">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="6">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+  </colItems>
+  <dataFields count="3">
+    <dataField name="Sum of Total Pay" fld="9" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Pay Rate" fld="8" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Hours" fld="7" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="2">
+      <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -322,287 +636,639 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E1A1C9B-0103-406E-8A76-06590081D684}">
+  <dimension ref="A3:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A4:A8"/>
+      <pivotSelection pane="bottomRight" showHeader="1" axis="axisRow" activeRow="7" previousRow="7" click="1" r:id="rId1">
+        <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+          <references count="1">
+            <reference field="0" count="0"/>
+          </references>
+        </pivotArea>
+      </pivotSelection>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="2" max="2" width="15.0"/>
+    <col min="1" max="1" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2">
-        <v>43831.0</v>
-      </c>
-      <c r="D1" s="2">
-        <v>43832.0</v>
-      </c>
-      <c r="E1" s="2">
-        <v>43833.0</v>
-      </c>
-      <c r="F1" s="2">
-        <v>43834.0</v>
-      </c>
-      <c r="G1" s="2">
-        <v>43835.0</v>
-      </c>
-      <c r="H1" s="2">
-        <v>43836.0</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1">
-        <v>8.0</v>
-      </c>
-      <c r="D2" s="1">
-        <v>8.0</v>
-      </c>
-      <c r="E2" s="1">
-        <v>8.5</v>
-      </c>
-      <c r="F2" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="G2" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="H2" s="1">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="1">
-        <v>8.5</v>
-      </c>
-      <c r="D3" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="E3" s="1">
-        <v>8.0</v>
-      </c>
-      <c r="F3" s="1">
-        <v>8.0</v>
-      </c>
-      <c r="G3" s="1">
-        <v>9.0</v>
-      </c>
-      <c r="H3" s="1">
-        <v>5.5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="1">
-        <v>7.5</v>
-      </c>
-      <c r="D4" s="1">
-        <v>6.5</v>
-      </c>
-      <c r="E4" s="1">
-        <v>10.0</v>
-      </c>
-      <c r="F4" s="1">
-        <v>8.0</v>
-      </c>
-      <c r="G4" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="H4" s="1">
-        <v>5.0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="B4" s="9">
+        <v>3450</v>
+      </c>
+      <c r="C4" s="8">
+        <v>75</v>
+      </c>
+      <c r="D4" s="8">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="9">
+        <v>3919.5</v>
+      </c>
+      <c r="C5" s="8">
+        <v>100.5</v>
+      </c>
+      <c r="D5" s="8">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="1">
-        <v>8.0</v>
-      </c>
-      <c r="D5" s="1">
-        <v>8.0</v>
-      </c>
-      <c r="E5" s="1">
-        <v>8.0</v>
-      </c>
-      <c r="F5" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="G5" s="1">
-        <v>7.0</v>
-      </c>
-      <c r="H5" s="1">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="s">
+      <c r="B6" s="9">
+        <v>2730</v>
+      </c>
+      <c r="C6" s="8">
+        <v>65</v>
+      </c>
+      <c r="D6" s="8">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="D6" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="E6" s="1">
-        <v>5.0</v>
-      </c>
-      <c r="F6" s="1">
-        <v>5.5</v>
-      </c>
-      <c r="G6" s="1">
-        <v>6.0</v>
-      </c>
-      <c r="H6" s="1">
-        <v>2.0</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="B11" s="1"/>
+      <c r="B7" s="9">
+        <v>88500</v>
+      </c>
+      <c r="C7" s="8">
+        <v>3000</v>
+      </c>
+      <c r="D7" s="8">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="9">
+        <v>6600</v>
+      </c>
+      <c r="C8" s="8">
+        <v>150</v>
+      </c>
+      <c r="D8" s="8">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="9">
+        <v>105199.5</v>
+      </c>
+      <c r="C9" s="8">
+        <v>3390.5</v>
+      </c>
+      <c r="D9" s="8">
+        <v>200.5</v>
+      </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:K21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="15" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2">
+        <v>43831</v>
+      </c>
+      <c r="D1" s="2">
+        <v>43832</v>
+      </c>
+      <c r="E1" s="2">
+        <v>43833</v>
+      </c>
+      <c r="F1" s="2">
+        <v>43834</v>
+      </c>
+      <c r="G1" s="2">
+        <v>43835</v>
+      </c>
+      <c r="H1" s="2">
+        <v>43836</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="1">
+        <v>8</v>
+      </c>
+      <c r="D2" s="1">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="F2" s="1">
+        <v>7</v>
+      </c>
+      <c r="G2" s="1">
+        <v>5</v>
+      </c>
+      <c r="H2" s="1">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="D3" s="1">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1">
+        <v>8</v>
+      </c>
+      <c r="F3" s="1">
+        <v>8</v>
+      </c>
+      <c r="G3" s="1">
+        <v>9</v>
+      </c>
+      <c r="H3" s="1">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="D4" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="E4" s="1">
+        <v>10</v>
+      </c>
+      <c r="F4" s="1">
+        <v>8</v>
+      </c>
+      <c r="G4" s="1">
+        <v>7</v>
+      </c>
+      <c r="H4" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1">
+        <v>8</v>
+      </c>
+      <c r="E5" s="1">
+        <v>8</v>
+      </c>
+      <c r="F5" s="1">
+        <v>7</v>
+      </c>
+      <c r="G5" s="1">
+        <v>7</v>
+      </c>
+      <c r="H5" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1">
+        <v>6</v>
+      </c>
+      <c r="D6" s="1">
+        <v>5</v>
+      </c>
+      <c r="E6" s="1">
+        <v>5</v>
+      </c>
+      <c r="F6" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="G6" s="1">
+        <v>6</v>
+      </c>
+      <c r="H6" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="B11" s="4"/>
+    </row>
+    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="3">
+        <f>VLOOKUP(B2,B2:E6,4,FALSE)</f>
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2">
+        <v>43831</v>
+      </c>
+      <c r="D14" s="2">
+        <v>43832</v>
+      </c>
+      <c r="E14" s="2">
+        <v>43833</v>
+      </c>
+      <c r="F14" s="2">
+        <v>43834</v>
+      </c>
+      <c r="G14" s="2">
+        <v>43835</v>
+      </c>
+      <c r="H14" s="2">
+        <v>43836</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="K14" s="5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" t="str">
+        <f>TRIM(B2)</f>
+        <v>Chan,Daniel</v>
+      </c>
+      <c r="C15" s="1">
+        <v>8</v>
+      </c>
+      <c r="D15" s="1">
+        <v>8</v>
+      </c>
+      <c r="E15" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="F15" s="1">
+        <v>7</v>
+      </c>
+      <c r="G15" s="1">
+        <v>5</v>
+      </c>
+      <c r="H15" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="I15" s="4">
+        <v>39</v>
+      </c>
+      <c r="J15" s="5">
+        <f>VLOOKUP(A2, Sheet2!$A$2:$D$6, 4, FALSE)</f>
+        <v>100.5</v>
+      </c>
+      <c r="K15">
+        <f>PRODUCT(I15,J15)</f>
+        <v>3919.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" t="str">
+        <f>TRIM(B3)</f>
+        <v>Ali, Dana</v>
+      </c>
+      <c r="C16" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="D16" s="1">
+        <v>7</v>
+      </c>
+      <c r="E16" s="1">
+        <v>8</v>
+      </c>
+      <c r="F16" s="1">
+        <v>8</v>
+      </c>
+      <c r="G16" s="1">
+        <v>9</v>
+      </c>
+      <c r="H16" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="I16" s="4">
+        <v>46</v>
+      </c>
+      <c r="J16" s="5">
+        <f>VLOOKUP(A3, Sheet2!$A$2:$D$6, 4, FALSE)</f>
+        <v>75</v>
+      </c>
+      <c r="K16">
+        <f t="shared" ref="K16:K19" si="0">PRODUCT(I16,J16)</f>
+        <v>3450</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" t="str">
+        <f>TRIM(B4)</f>
+        <v>Sanchez, Alexis</v>
+      </c>
+      <c r="C17" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="D17" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="E17" s="1">
+        <v>10</v>
+      </c>
+      <c r="F17" s="1">
+        <v>8</v>
+      </c>
+      <c r="G17" s="1">
+        <v>7</v>
+      </c>
+      <c r="H17" s="1">
+        <v>5</v>
+      </c>
+      <c r="I17" s="4">
+        <v>44</v>
+      </c>
+      <c r="J17" s="5">
+        <f>VLOOKUP(A4, Sheet2!$A$2:$D$6, 4, FALSE)</f>
+        <v>150</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="0"/>
+        <v>6600</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" t="str">
+        <f>TRIM(B5)</f>
+        <v>Fischer, Wolfgang</v>
+      </c>
+      <c r="C18" s="1">
+        <v>8</v>
+      </c>
+      <c r="D18" s="1">
+        <v>8</v>
+      </c>
+      <c r="E18" s="1">
+        <v>8</v>
+      </c>
+      <c r="F18" s="1">
+        <v>7</v>
+      </c>
+      <c r="G18" s="1">
+        <v>7</v>
+      </c>
+      <c r="H18" s="1">
+        <v>4</v>
+      </c>
+      <c r="I18" s="4">
+        <v>42</v>
+      </c>
+      <c r="J18" s="5">
+        <f>VLOOKUP(A5, Sheet2!$A$2:$D$6, 4, FALSE)</f>
+        <v>65</v>
+      </c>
+      <c r="K18">
+        <f t="shared" si="0"/>
+        <v>2730</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" t="str">
+        <f>TRIM(B6)</f>
+        <v>Patel, Anika</v>
+      </c>
+      <c r="C19" s="1">
+        <v>6</v>
+      </c>
+      <c r="D19" s="1">
+        <v>5</v>
+      </c>
+      <c r="E19" s="1">
+        <v>5</v>
+      </c>
+      <c r="F19" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="G19" s="1">
+        <v>6</v>
+      </c>
+      <c r="H19" s="1">
+        <v>2</v>
+      </c>
+      <c r="I19" s="4">
+        <v>29.5</v>
+      </c>
+      <c r="J19" s="5">
+        <f>VLOOKUP(A6, Sheet2!$A$2:$D$6, 4, FALSE)</f>
+        <v>3000</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="0"/>
+        <v>88500</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <f>VLOOKUP(B19,B15:J19,9,FALSE)</f>
+        <v>3000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="2">
-        <v>40532.0</v>
+        <v>40532</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D2" s="1">
         <v>100.5</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="2">
-        <v>40183.0</v>
+        <v>40183</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="2">
+        <v>40858</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D3" s="1">
-        <v>75.0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="2">
-        <v>40858.0</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="D4" s="1">
-        <v>150.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="2">
-        <v>43232.0</v>
+        <v>43232</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="2">
+        <v>43832</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="1">
-        <v>65.0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="2">
-        <v>43832.0</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="D6" s="1">
-        <v>3000.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B7" s="2"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>